--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia.Grochowska\Desktop\Moje\IERP-main\IERP-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894F37F-AB4D-448A-9F9E-18EE35B4C332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0541F894-217A-4CF8-AE81-E0FB78CE9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11232" windowHeight="12360" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -3756,8 +3756,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4082,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4806,7 +4806,7 @@
         <v>5.3</v>
       </c>
       <c r="G8" s="66">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="H8" s="67">
         <v>31.536000000000001</v>
@@ -4854,6 +4854,10 @@
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="91"/>
+      <c r="H15">
+        <f>8760*3.6</f>
+        <v>31536</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4870,7 +4874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -5202,6 +5206,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -5378,15 +5391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5394,6 +5398,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5412,14 +5424,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>

--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia.Grochowska\Desktop\Moje\IERP-main\IERP-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0541F894-217A-4CF8-AE81-E0FB78CE9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EE8E9-5CA5-4DE7-971C-79019E4ACCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1165,9 +1165,6 @@
     <t>Brown Coal Mine</t>
   </si>
   <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
     <t>Brown Coal</t>
   </si>
   <si>
@@ -1305,6 +1302,9 @@
   </si>
   <si>
     <t>PLN/GJ</t>
+  </si>
+  <si>
+    <t>ELC_HV</t>
   </si>
 </sst>
 </file>
@@ -3756,8 +3756,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3884,7 +3884,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="96" t="s">
         <v>100</v>
@@ -3904,10 +3904,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="77" t="s">
         <v>100</v>
@@ -3927,10 +3927,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>132</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>133</v>
       </c>
       <c r="E9" s="100" t="s">
         <v>100</v>
@@ -3950,13 +3950,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="E10" s="97" t="s">
         <v>144</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>145</v>
       </c>
       <c r="F10" s="97"/>
       <c r="G10" s="97"/>
@@ -4001,13 +4001,13 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="94" t="s">
-        <v>127</v>
-      </c>
       <c r="D16" s="94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
@@ -4018,7 +4018,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
@@ -4029,7 +4029,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -4040,7 +4040,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -4051,7 +4051,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.8" thickBot="1">
@@ -4062,7 +4062,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4153,7 @@
         <v>19</v>
       </c>
       <c r="M5" s="118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5" s="118"/>
       <c r="O5" s="118"/>
@@ -4187,13 +4187,13 @@
         <v>59</v>
       </c>
       <c r="M6" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="N6" s="94" t="s">
+      <c r="O6" s="94" t="s">
         <v>124</v>
-      </c>
-      <c r="O6" s="94" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1">
@@ -4211,7 +4211,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="95" t="s">
         <v>101</v>
@@ -4262,16 +4262,16 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="78" t="s">
         <v>129</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>130</v>
       </c>
       <c r="F9" s="78" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>102</v>
@@ -4561,7 +4561,7 @@
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="90" t="s">
         <v>108</v>
@@ -4645,7 +4645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -4662,7 +4662,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999">
       <c r="B2" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -4770,19 +4770,19 @@
         <v>104</v>
       </c>
       <c r="G7" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="I7" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="J7" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="K7" s="93" t="s">
         <v>120</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="E8" s="65" t="str">
         <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
+        <v>ELC_HV</v>
       </c>
       <c r="F8" s="108">
         <v>5.3</v>
@@ -4835,13 +4835,13 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="120"/>
       <c r="E11" s="120"/>
       <c r="F11" s="121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="121"/>
       <c r="H11" s="121"/>
@@ -4889,7 +4889,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="17.399999999999999">
       <c r="B2" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="D7" s="65" t="str">
         <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
+        <v>ELC_HV</v>
       </c>
       <c r="E7" s="65" t="str">
         <f>SEC_Comm!C9</f>
@@ -5149,7 +5149,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
